--- a/data/timetable_group_A.xlsx
+++ b/data/timetable_group_A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\AttendWise\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F359F0-7167-4E50-8046-D05DDBDE744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE2ED0-D25C-4B2E-A93F-92731ACE54B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2736" windowWidth="23040" windowHeight="13836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timetable" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,36 +522,36 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
